--- a/results/mp/tinybert/corona/confidence/42/desired-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/desired-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,33 +49,24 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -88,90 +79,108 @@
     <t>love</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>great</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>hand</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>energy</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>sure</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>!</t>
   </si>
   <si>
@@ -181,28 +190,52 @@
     <t>consumer</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
-    <t>store</t>
+    <t>,</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>of</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>to</t>
   </si>
   <si>
     <t>corona</t>
@@ -563,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +604,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.96</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -682,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,31 +733,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4">
+        <v>0.9661016949152542</v>
+      </c>
+      <c r="L4">
+        <v>57</v>
+      </c>
+      <c r="M4">
+        <v>57</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4">
-        <v>0.96875</v>
-      </c>
-      <c r="L4">
-        <v>31</v>
-      </c>
-      <c r="M4">
-        <v>31</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -732,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8636363636363636</v>
+        <v>0.7842465753424658</v>
       </c>
       <c r="C5">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="D5">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +815,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8095238095238095</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>336</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.95</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L6">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M6">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -824,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,37 +865,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5833333333333334</v>
+        <v>0.3351063829787234</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.9107142857142857</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="L7">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="M7">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +915,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5708154506437768</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C8">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.9019607843137255</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="L8">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M8">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +965,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.88</v>
+        <v>0.8591549295774648</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +1015,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.45</v>
+        <v>0.125</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.875</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1024,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,13 +1065,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4186046511627907</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,170 +1083,98 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>50</v>
+        <v>222</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.8515625</v>
+      </c>
+      <c r="L11">
+        <v>109</v>
+      </c>
+      <c r="M11">
+        <v>109</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L12">
+        <v>30</v>
+      </c>
+      <c r="M12">
+        <v>30</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13">
+        <v>0.8166666666666667</v>
+      </c>
+      <c r="L13">
+        <v>98</v>
+      </c>
+      <c r="M13">
+        <v>98</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K11">
-        <v>0.8717948717948718</v>
-      </c>
-      <c r="L11">
-        <v>34</v>
-      </c>
-      <c r="M11">
-        <v>34</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.2740740740740741</v>
-      </c>
-      <c r="C12">
-        <v>37</v>
-      </c>
-      <c r="D12">
-        <v>37</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>98</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>0.8703703703703703</v>
-      </c>
-      <c r="L12">
+      <c r="K14">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L14">
         <v>47</v>
       </c>
-      <c r="M12">
+      <c r="M14">
         <v>47</v>
       </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.2181818181818182</v>
-      </c>
-      <c r="C13">
-        <v>24</v>
-      </c>
-      <c r="D13">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>86</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L13">
-        <v>44</v>
-      </c>
-      <c r="M13">
-        <v>44</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.1021505376344086</v>
-      </c>
-      <c r="C14">
-        <v>19</v>
-      </c>
-      <c r="D14">
-        <v>19</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>167</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L14">
-        <v>23</v>
-      </c>
-      <c r="M14">
-        <v>23</v>
-      </c>
       <c r="N14">
         <v>1</v>
       </c>
@@ -1224,21 +1185,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.8448275862068966</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L15">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1255,16 +1216,16 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.84</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1276,21 +1237,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.8235294117647058</v>
+        <v>0.8</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1302,47 +1263,47 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18">
+        <v>0.775</v>
+      </c>
+      <c r="L18">
+        <v>124</v>
+      </c>
+      <c r="M18">
+        <v>124</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>36</v>
-      </c>
-      <c r="K18">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L18">
-        <v>14</v>
-      </c>
-      <c r="M18">
-        <v>14</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>3</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.7793427230046949</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L19">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1354,21 +1315,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.7671232876712328</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="L20">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="M20">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1380,21 +1341,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.7586206896551724</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1406,21 +1367,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.7307692307692307</v>
+        <v>0.7389033942558747</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>283</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1432,21 +1393,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.6818181818181818</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1458,21 +1419,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.6511627906976745</v>
+        <v>0.6875</v>
       </c>
       <c r="L24">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1484,21 +1445,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25">
+        <v>0.6825396825396826</v>
+      </c>
+      <c r="L25">
         <v>43</v>
       </c>
-      <c r="K25">
-        <v>0.6413043478260869</v>
-      </c>
-      <c r="L25">
-        <v>59</v>
-      </c>
       <c r="M25">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1510,21 +1471,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.6363636363636364</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1536,21 +1497,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.6180555555555556</v>
+        <v>0.6203389830508474</v>
       </c>
       <c r="L27">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="M27">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1562,21 +1523,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>55</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.6</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1588,21 +1549,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K29">
         <v>0.6</v>
       </c>
       <c r="L29">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1614,21 +1575,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.5714285714285714</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1640,21 +1601,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.4736842105263158</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="M31">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1666,21 +1627,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>20</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.4324324324324325</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1692,21 +1653,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.07575757575757576</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1718,21 +1679,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>183</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.05210918114143921</v>
+        <v>0.5</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1744,21 +1705,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>382</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.04824561403508772</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1770,21 +1731,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>434</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.04444444444444445</v>
+        <v>0.1172248803827751</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1796,241 +1757,605 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>301</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.03995680345572354</v>
+        <v>0.06971153846153846</v>
       </c>
       <c r="L37">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N37">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>889</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.03658536585365853</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>395</v>
+        <v>456</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.02055406613047364</v>
+        <v>0.06159014557670773</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="N39">
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
       <c r="O39">
-        <v>0.15</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>1096</v>
+        <v>838</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.01894736842105263</v>
+        <v>0.060790273556231</v>
       </c>
       <c r="L40">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="M40">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="N40">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="O40">
-        <v>0.14</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.01564076690211907</v>
+        <v>0.05587989991659716</v>
       </c>
       <c r="L41">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="M41">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="N41">
-        <v>0.82</v>
+        <v>0.99</v>
       </c>
       <c r="O41">
-        <v>0.18</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>1951</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>0.0130684788290643</v>
+        <v>0.05076923076923077</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M42">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N42">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>1888</v>
+        <v>617</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K43">
-        <v>0.01220295439948619</v>
+        <v>0.04728950403690888</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="M43">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N43">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>1538</v>
+        <v>826</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K44">
-        <v>0.009758897818599311</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M44">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="N44">
-        <v>0.8100000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="O44">
-        <v>0.1899999999999999</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>1725</v>
+        <v>858</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45">
+        <v>0.03863636363636364</v>
+      </c>
+      <c r="L45">
+        <v>34</v>
+      </c>
+      <c r="M45">
+        <v>36</v>
+      </c>
+      <c r="N45">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O45">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K46">
+        <v>0.03258426966292135</v>
+      </c>
+      <c r="L46">
+        <v>87</v>
+      </c>
+      <c r="M46">
+        <v>90</v>
+      </c>
+      <c r="N46">
+        <v>0.97</v>
+      </c>
+      <c r="O46">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K47">
+        <v>0.0319672131147541</v>
+      </c>
+      <c r="L47">
+        <v>78</v>
+      </c>
+      <c r="M47">
+        <v>83</v>
+      </c>
+      <c r="N47">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O47">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K45">
-        <v>0.009416195856873822</v>
-      </c>
-      <c r="L45">
-        <v>15</v>
-      </c>
-      <c r="M45">
-        <v>19</v>
-      </c>
-      <c r="N45">
-        <v>0.79</v>
-      </c>
-      <c r="O45">
-        <v>0.21</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>1578</v>
+      <c r="K48">
+        <v>0.0284780578898226</v>
+      </c>
+      <c r="L48">
+        <v>61</v>
+      </c>
+      <c r="M48">
+        <v>62</v>
+      </c>
+      <c r="N48">
+        <v>0.98</v>
+      </c>
+      <c r="O48">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K49">
+        <v>0.02508025682182986</v>
+      </c>
+      <c r="L49">
+        <v>125</v>
+      </c>
+      <c r="M49">
+        <v>137</v>
+      </c>
+      <c r="N49">
+        <v>0.91</v>
+      </c>
+      <c r="O49">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>4859</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K50">
+        <v>0.0207808564231738</v>
+      </c>
+      <c r="L50">
+        <v>33</v>
+      </c>
+      <c r="M50">
+        <v>39</v>
+      </c>
+      <c r="N50">
+        <v>0.85</v>
+      </c>
+      <c r="O50">
+        <v>0.15</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K51">
+        <v>0.01982378854625551</v>
+      </c>
+      <c r="L51">
+        <v>27</v>
+      </c>
+      <c r="M51">
+        <v>28</v>
+      </c>
+      <c r="N51">
+        <v>0.96</v>
+      </c>
+      <c r="O51">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K52">
+        <v>0.01862278042442616</v>
+      </c>
+      <c r="L52">
+        <v>43</v>
+      </c>
+      <c r="M52">
+        <v>43</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K53">
+        <v>0.01781994908585975</v>
+      </c>
+      <c r="L53">
+        <v>77</v>
+      </c>
+      <c r="M53">
+        <v>84</v>
+      </c>
+      <c r="N53">
+        <v>0.92</v>
+      </c>
+      <c r="O53">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K54">
+        <v>0.01755119097367321</v>
+      </c>
+      <c r="L54">
+        <v>42</v>
+      </c>
+      <c r="M54">
+        <v>43</v>
+      </c>
+      <c r="N54">
+        <v>0.98</v>
+      </c>
+      <c r="O54">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K55">
+        <v>0.01716937354988399</v>
+      </c>
+      <c r="L55">
+        <v>37</v>
+      </c>
+      <c r="M55">
+        <v>40</v>
+      </c>
+      <c r="N55">
+        <v>0.93</v>
+      </c>
+      <c r="O55">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K56">
+        <v>0.01645161290322581</v>
+      </c>
+      <c r="L56">
+        <v>51</v>
+      </c>
+      <c r="M56">
+        <v>58</v>
+      </c>
+      <c r="N56">
+        <v>0.88</v>
+      </c>
+      <c r="O56">
+        <v>0.12</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K57">
+        <v>0.01587916343919442</v>
+      </c>
+      <c r="L57">
+        <v>82</v>
+      </c>
+      <c r="M57">
+        <v>83</v>
+      </c>
+      <c r="N57">
+        <v>0.99</v>
+      </c>
+      <c r="O57">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>5082</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K58">
+        <v>0.0130581297388374</v>
+      </c>
+      <c r="L58">
+        <v>31</v>
+      </c>
+      <c r="M58">
+        <v>36</v>
+      </c>
+      <c r="N58">
+        <v>0.86</v>
+      </c>
+      <c r="O58">
+        <v>0.14</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K59">
+        <v>0.01190103351080489</v>
+      </c>
+      <c r="L59">
+        <v>38</v>
+      </c>
+      <c r="M59">
+        <v>46</v>
+      </c>
+      <c r="N59">
+        <v>0.83</v>
+      </c>
+      <c r="O59">
+        <v>0.17</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>3155</v>
       </c>
     </row>
   </sheetData>
